--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H2">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I2">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J2">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N2">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O2">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P2">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q2">
-        <v>303.6965791876622</v>
+        <v>150.3799158419959</v>
       </c>
       <c r="R2">
-        <v>2733.26921268896</v>
+        <v>1353.419242577963</v>
       </c>
       <c r="S2">
-        <v>0.01304274011458465</v>
+        <v>0.01281818790986267</v>
       </c>
       <c r="T2">
-        <v>0.01364186011335264</v>
+        <v>0.01346935393785625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H3">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I3">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J3">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P3">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q3">
-        <v>36.34737589296</v>
+        <v>42.43094489046599</v>
       </c>
       <c r="R3">
-        <v>327.12638303664</v>
+        <v>381.8785040141939</v>
       </c>
       <c r="S3">
-        <v>0.001560996764886365</v>
+        <v>0.003616758406557982</v>
       </c>
       <c r="T3">
-        <v>0.001632701358525379</v>
+        <v>0.003800490321113444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.26722666666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H4">
-        <v>165.80168</v>
+        <v>193.552403</v>
       </c>
       <c r="I4">
-        <v>0.01597985502890189</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J4">
-        <v>0.01623411501809385</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N4">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O4">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P4">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q4">
-        <v>32.04252870705333</v>
+        <v>27.63154105228</v>
       </c>
       <c r="R4">
-        <v>192.25517224232</v>
+        <v>165.78924631368</v>
       </c>
       <c r="S4">
-        <v>0.001376118149430881</v>
+        <v>0.002355276523890018</v>
       </c>
       <c r="T4">
-        <v>0.0009595535462158321</v>
+        <v>0.001649949969261465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3231.170084666667</v>
+        <v>64.51746766666666</v>
       </c>
       <c r="H5">
-        <v>9693.510254000001</v>
+        <v>193.552403</v>
       </c>
       <c r="I5">
-        <v>0.93425403518284</v>
+        <v>0.01908790637288361</v>
       </c>
       <c r="J5">
-        <v>0.9491192151521513</v>
+        <v>0.0192326001326142</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.495057333333333</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N5">
-        <v>16.485172</v>
+        <v>0.162391</v>
       </c>
       <c r="O5">
-        <v>0.8161989011161211</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P5">
-        <v>0.8403205285996808</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q5">
-        <v>17755.46486899485</v>
+        <v>3.492352030619222</v>
       </c>
       <c r="R5">
-        <v>159799.1838209537</v>
+        <v>31.431168275573</v>
       </c>
       <c r="S5">
-        <v>0.762537116879536</v>
+        <v>0.000297683532572946</v>
       </c>
       <c r="T5">
-        <v>0.7975643605807698</v>
+        <v>0.0003128059043830421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I6">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J6">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.657666</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N6">
-        <v>1.972998</v>
+        <v>6.992521</v>
       </c>
       <c r="O6">
-        <v>0.09768528951377062</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P6">
-        <v>0.1005722428790014</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q6">
-        <v>2125.030704902388</v>
+        <v>7531.341557201148</v>
       </c>
       <c r="R6">
-        <v>19125.27634412149</v>
+        <v>67782.07401481034</v>
       </c>
       <c r="S6">
-        <v>0.09126287590624417</v>
+        <v>0.6419617324097632</v>
       </c>
       <c r="T6">
-        <v>0.09545504822740933</v>
+        <v>0.6745734926957473</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.93425403518284</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J7">
-        <v>0.9491192151521513</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5797745</v>
+        <v>0.657666</v>
       </c>
       <c r="N7">
-        <v>1.159549</v>
+        <v>1.972998</v>
       </c>
       <c r="O7">
-        <v>0.08611580937010824</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P7">
-        <v>0.0591072285213179</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q7">
-        <v>1873.350020252574</v>
+        <v>2125.030704902388</v>
       </c>
       <c r="R7">
-        <v>11240.10012151545</v>
+        <v>19125.27634412149</v>
       </c>
       <c r="S7">
-        <v>0.08045404239705985</v>
+        <v>0.1811348459476915</v>
       </c>
       <c r="T7">
-        <v>0.0560998063439721</v>
+        <v>0.1903365255451824</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.924789</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H8">
-        <v>17.774367</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I8">
-        <v>0.001713081603820286</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J8">
-        <v>0.001740338929326963</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.495057333333333</v>
+        <v>0.42828</v>
       </c>
       <c r="N8">
-        <v>16.485172</v>
+        <v>0.85656</v>
       </c>
       <c r="O8">
-        <v>0.8161989011161211</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P8">
-        <v>0.8403205285996808</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q8">
-        <v>32.55705524290266</v>
+        <v>1383.84552386104</v>
       </c>
       <c r="R8">
-        <v>293.013497186124</v>
+        <v>8303.073143166241</v>
       </c>
       <c r="S8">
-        <v>0.00139821532256036</v>
+        <v>0.1179571877251938</v>
       </c>
       <c r="T8">
-        <v>0.001462442529034636</v>
+        <v>0.08263295468164762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.924789</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H9">
-        <v>17.774367</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I9">
-        <v>0.001713081603820286</v>
+        <v>0.9559623816860557</v>
       </c>
       <c r="J9">
-        <v>0.001740338929326963</v>
+        <v>0.9632089486203771</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.657666</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N9">
-        <v>1.972998</v>
+        <v>0.162391</v>
       </c>
       <c r="O9">
-        <v>0.09768528951377062</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P9">
-        <v>0.1005722428790014</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q9">
-        <v>3.896532282473999</v>
+        <v>174.9043137397016</v>
       </c>
       <c r="R9">
-        <v>35.06879054226599</v>
+        <v>1574.138823657314</v>
       </c>
       <c r="S9">
-        <v>0.0001673428724298991</v>
+        <v>0.01490861560340739</v>
       </c>
       <c r="T9">
-        <v>0.0001750297894920525</v>
+        <v>0.01566597569779985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.924789</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H10">
-        <v>17.774367</v>
+        <v>14.445922</v>
       </c>
       <c r="I10">
-        <v>0.001713081603820286</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J10">
-        <v>0.001740338929326963</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5797745</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N10">
-        <v>1.159549</v>
+        <v>6.992521</v>
       </c>
       <c r="O10">
-        <v>0.08611580937010824</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P10">
-        <v>0.0591072285213179</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q10">
-        <v>3.4350415800805</v>
+        <v>11.22371254992911</v>
       </c>
       <c r="R10">
-        <v>20.610249480483</v>
+        <v>101.013412949362</v>
       </c>
       <c r="S10">
-        <v>0.000147523408830027</v>
+        <v>0.0009566946204600682</v>
       </c>
       <c r="T10">
-        <v>0.0001028666108002745</v>
+        <v>0.001005294862583877</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>162.5045395</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H11">
-        <v>325.009079</v>
+        <v>14.445922</v>
       </c>
       <c r="I11">
-        <v>0.04698623649799799</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J11">
-        <v>0.03182256518999536</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.495057333333333</v>
+        <v>0.657666</v>
       </c>
       <c r="N11">
-        <v>16.485172</v>
+        <v>1.972998</v>
       </c>
       <c r="O11">
-        <v>0.8161989011161211</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P11">
-        <v>0.8403205285996808</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q11">
-        <v>892.9717614794312</v>
+        <v>3.166863912684</v>
       </c>
       <c r="R11">
-        <v>5357.830568876588</v>
+        <v>28.501775214156</v>
       </c>
       <c r="S11">
-        <v>0.03835011459724814</v>
+        <v>0.0002699393498823205</v>
       </c>
       <c r="T11">
-        <v>0.0267411548018547</v>
+        <v>0.0002836523127049979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.815307333333333</v>
+      </c>
+      <c r="H12">
+        <v>14.445922</v>
+      </c>
+      <c r="I12">
+        <v>0.001424639541189161</v>
+      </c>
+      <c r="J12">
+        <v>0.001435438863411757</v>
+      </c>
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>162.5045395</v>
-      </c>
-      <c r="H12">
-        <v>325.009079</v>
-      </c>
-      <c r="I12">
-        <v>0.04698623649799799</v>
-      </c>
-      <c r="J12">
-        <v>0.03182256518999536</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.657666</v>
+        <v>0.42828</v>
       </c>
       <c r="N12">
-        <v>1.972998</v>
+        <v>0.85656</v>
       </c>
       <c r="O12">
-        <v>0.09768528951377062</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P12">
-        <v>0.1005722428790014</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q12">
-        <v>106.873710474807</v>
+        <v>2.06229982472</v>
       </c>
       <c r="R12">
-        <v>641.242262848842</v>
+        <v>12.37379894832</v>
       </c>
       <c r="S12">
-        <v>0.004589864115469429</v>
+        <v>0.0001757877475308139</v>
       </c>
       <c r="T12">
-        <v>0.003200466755321068</v>
+        <v>0.0001231451957734336</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5045395</v>
+        <v>4.815307333333333</v>
       </c>
       <c r="H13">
-        <v>325.009079</v>
+        <v>14.445922</v>
       </c>
       <c r="I13">
-        <v>0.04698623649799799</v>
+        <v>0.001424639541189161</v>
       </c>
       <c r="J13">
-        <v>0.03182256518999536</v>
+        <v>0.001435438863411757</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.5797745</v>
+        <v>0.05413033333333334</v>
       </c>
       <c r="N13">
-        <v>1.159549</v>
+        <v>0.162391</v>
       </c>
       <c r="O13">
-        <v>0.08611580937010824</v>
+        <v>0.01559539987035126</v>
       </c>
       <c r="P13">
-        <v>0.0591072285213179</v>
+        <v>0.01626435854882633</v>
       </c>
       <c r="Q13">
-        <v>94.21598813634274</v>
+        <v>0.2606541910557778</v>
       </c>
       <c r="R13">
-        <v>376.863952545371</v>
+        <v>2.345887719502</v>
       </c>
       <c r="S13">
-        <v>0.004046257785280417</v>
+        <v>2.221782331595871E-05</v>
       </c>
       <c r="T13">
-        <v>0.001880943632819592</v>
+        <v>2.334649234944856E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1281,19 +1281,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3.689559</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H14">
-        <v>11.068677</v>
+        <v>152.574539</v>
       </c>
       <c r="I14">
-        <v>0.001066791686439732</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J14">
-        <v>0.001083765710432669</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.495057333333333</v>
+        <v>2.330840333333333</v>
       </c>
       <c r="N14">
-        <v>16.485172</v>
+        <v>6.992521</v>
       </c>
       <c r="O14">
-        <v>0.8161989011161211</v>
+        <v>0.6715345129768794</v>
       </c>
       <c r="P14">
-        <v>0.8403205285996808</v>
+        <v>0.7003397275969581</v>
       </c>
       <c r="Q14">
-        <v>20.274338239716</v>
+        <v>177.8134446704698</v>
       </c>
       <c r="R14">
-        <v>182.469044157444</v>
+        <v>1066.880668022819</v>
       </c>
       <c r="S14">
-        <v>0.0008707142021919227</v>
+        <v>0.01515658613003119</v>
       </c>
       <c r="T14">
-        <v>0.0009107105746689886</v>
+        <v>0.0106176954449708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1343,19 +1343,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3.689559</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H15">
-        <v>11.068677</v>
+        <v>152.574539</v>
       </c>
       <c r="I15">
-        <v>0.001066791686439732</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J15">
-        <v>0.001083765710432669</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,27 +1370,27 @@
         <v>1.972998</v>
       </c>
       <c r="O15">
-        <v>0.09768528951377062</v>
+        <v>0.1894790521235985</v>
       </c>
       <c r="P15">
-        <v>0.1005722428790014</v>
+        <v>0.1976066831789769</v>
       </c>
       <c r="Q15">
-        <v>2.426497509294</v>
+        <v>50.171543382987</v>
       </c>
       <c r="R15">
-        <v>21.838477583646</v>
+        <v>301.029260297922</v>
       </c>
       <c r="S15">
-        <v>0.0001042098547407488</v>
+        <v>0.004276556927234007</v>
       </c>
       <c r="T15">
-        <v>0.0001089967482535678</v>
+        <v>0.002995871142544512</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1405,19 +1405,19 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>3.689559</v>
+        <v>76.28726950000001</v>
       </c>
       <c r="H16">
-        <v>11.068677</v>
+        <v>152.574539</v>
       </c>
       <c r="I16">
-        <v>0.001066791686439732</v>
+        <v>0.02257007769093324</v>
       </c>
       <c r="J16">
-        <v>0.001083765710432669</v>
+        <v>0.01516077844306046</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5797745</v>
+        <v>0.42828</v>
       </c>
       <c r="N16">
-        <v>1.159549</v>
+        <v>0.85656</v>
       </c>
       <c r="O16">
-        <v>0.08611580937010824</v>
+        <v>0.123391035029171</v>
       </c>
       <c r="P16">
-        <v>0.0591072285213179</v>
+        <v>0.08578923067523865</v>
       </c>
       <c r="Q16">
-        <v>2.1391122244455</v>
+        <v>32.67231178146</v>
       </c>
       <c r="R16">
-        <v>12.834673346673</v>
+        <v>130.68924712584</v>
       </c>
       <c r="S16">
-        <v>9.186762950706021E-05</v>
+        <v>0.002784945246973054</v>
       </c>
       <c r="T16">
-        <v>6.405838751011219E-05</v>
+        <v>0.001300631519067899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>76.28726950000001</v>
+      </c>
+      <c r="H17">
+        <v>152.574539</v>
+      </c>
+      <c r="I17">
+        <v>0.02257007769093324</v>
+      </c>
+      <c r="J17">
+        <v>0.01516077844306046</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P17">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q17">
+        <v>4.129455327124834</v>
+      </c>
+      <c r="R17">
+        <v>24.776731962749</v>
+      </c>
+      <c r="S17">
+        <v>0.0003519893866949981</v>
+      </c>
+      <c r="T17">
+        <v>0.0002465803364772523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3.227899333333333</v>
+      </c>
+      <c r="H18">
+        <v>9.683698</v>
+      </c>
+      <c r="I18">
+        <v>0.0009549947089382317</v>
+      </c>
+      <c r="J18">
+        <v>0.0009622339405364853</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.330840333333333</v>
+      </c>
+      <c r="N18">
+        <v>6.992521</v>
+      </c>
+      <c r="O18">
+        <v>0.6715345129768794</v>
+      </c>
+      <c r="P18">
+        <v>0.7003397275969581</v>
+      </c>
+      <c r="Q18">
+        <v>7.52371795807311</v>
+      </c>
+      <c r="R18">
+        <v>67.713461622658</v>
+      </c>
+      <c r="S18">
+        <v>0.0006413119067623321</v>
+      </c>
+      <c r="T18">
+        <v>0.0006738906557998697</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3.227899333333333</v>
+      </c>
+      <c r="H19">
+        <v>9.683698</v>
+      </c>
+      <c r="I19">
+        <v>0.0009549947089382317</v>
+      </c>
+      <c r="J19">
+        <v>0.0009622339405364853</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.657666</v>
+      </c>
+      <c r="N19">
+        <v>1.972998</v>
+      </c>
+      <c r="O19">
+        <v>0.1894790521235985</v>
+      </c>
+      <c r="P19">
+        <v>0.1976066831789769</v>
+      </c>
+      <c r="Q19">
+        <v>2.122879642956</v>
+      </c>
+      <c r="R19">
+        <v>19.105916786604</v>
+      </c>
+      <c r="S19">
+        <v>0.000180951492232668</v>
+      </c>
+      <c r="T19">
+        <v>0.0001901438574316518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.227899333333333</v>
+      </c>
+      <c r="H20">
+        <v>9.683698</v>
+      </c>
+      <c r="I20">
+        <v>0.0009549947089382317</v>
+      </c>
+      <c r="J20">
+        <v>0.0009622339405364853</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.42828</v>
+      </c>
+      <c r="N20">
+        <v>0.85656</v>
+      </c>
+      <c r="O20">
+        <v>0.123391035029171</v>
+      </c>
+      <c r="P20">
+        <v>0.08578923067523865</v>
+      </c>
+      <c r="Q20">
+        <v>1.38244472648</v>
+      </c>
+      <c r="R20">
+        <v>8.294668358879999</v>
+      </c>
+      <c r="S20">
+        <v>0.0001178377855832703</v>
+      </c>
+      <c r="T20">
+        <v>8.254930948822841E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.227899333333333</v>
+      </c>
+      <c r="H21">
+        <v>9.683698</v>
+      </c>
+      <c r="I21">
+        <v>0.0009549947089382317</v>
+      </c>
+      <c r="J21">
+        <v>0.0009622339405364853</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.162391</v>
+      </c>
+      <c r="O21">
+        <v>0.01559539987035126</v>
+      </c>
+      <c r="P21">
+        <v>0.01626435854882633</v>
+      </c>
+      <c r="Q21">
+        <v>0.1747272668797778</v>
+      </c>
+      <c r="R21">
+        <v>1.572545401918</v>
+      </c>
+      <c r="S21">
+        <v>1.489352435996143E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.565011781673543E-05</v>
       </c>
     </row>
   </sheetData>
